--- a/excel/constant.xlsx
+++ b/excel/constant.xlsx
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D1" sqref="D1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,7 +512,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/constant.xlsx
+++ b/excel/constant.xlsx
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主线初始矿产id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,6 +70,10 @@
   </si>
   <si>
     <t>100,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -81,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +91,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -138,11 +145,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -426,16 +434,16 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:M1048576"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,59 +465,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/excel/constant.xlsx
+++ b/excel/constant.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,23 +57,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>矿等阶段初始（1阶，2阶）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿等阶段循环（3阶，成长值）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售游戏内容公式（销售获得钻石=矿1产出/CD/常量+矿2产出/CD/常量+……，参数：常量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,12 +426,12 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="84.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -473,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -503,22 +495,18 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/constant.xlsx
+++ b/excel/constant.xlsx
@@ -57,15 +57,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>销售游戏内容公式（销售获得钻石=矿1产出/CD/常量+矿2产出/CD/常量+……，参数：常量）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>30000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +426,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -465,7 +465,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -495,10 +495,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">

--- a/excel/constant.xlsx
+++ b/excel/constant.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>long[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售资产金矿消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +438,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -486,8 +498,8 @@
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
-        <v>1200</v>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -505,8 +517,12 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/constant.xlsx
+++ b/excel/constant.xlsx
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>long[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1800</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +74,10 @@
   </si>
   <si>
     <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +438,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -477,7 +477,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -499,7 +499,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -518,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/excel/constant.xlsx
+++ b/excel/constant.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,30 @@
   </si>
   <si>
     <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始金矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始羽毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -496,10 +520,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -507,10 +531,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -518,9 +542,42 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>13</v>
       </c>
     </row>

--- a/excel/constant.xlsx
+++ b/excel/constant.xlsx
@@ -438,7 +438,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/excel/constant.xlsx
+++ b/excel/constant.xlsx
@@ -69,14 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>销售资产金矿消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +94,14 @@
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售资产金矿消耗（货币类型，货币数量）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +462,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -501,7 +501,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -520,10 +520,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -531,10 +531,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -542,10 +542,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -575,10 +575,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/excel/constant.xlsx
+++ b/excel/constant.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>销售资产金矿消耗（货币类型，货币数量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日商城刷新时间（参数：每日0点计时秒数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳时间（参数：秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线奖励触发时间（参数：秒）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -581,6 +593,39 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/constant.xlsx
+++ b/excel/constant.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,10 @@
   </si>
   <si>
     <t>离线奖励触发时间（参数：秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算力（/1000）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -626,6 +630,17 @@
         <v>180</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1641</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
